--- a/PccuClub/Template/性平事件管理_template.xlsx
+++ b/PccuClub/Template/性平事件管理_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PushuData\2023\Project\Pccu\SRC3\PccuClub\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A7A73-86D9-4830-819F-F6D797E0658D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -76,6 +77,20 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,12 +130,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,19 +428,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="20" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,6 +477,306 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/PccuClub/Template/性平事件管理_template.xlsx
+++ b/PccuClub/Template/性平事件管理_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pccu\SourceCode\SRC2\PccuClub\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A7A73-86D9-4830-819F-F6D797E0658D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99342CF5-16D7-476E-823C-E394C9C96142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,34 +22,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>校安事件編號</t>
-  </si>
-  <si>
-    <t>性平號</t>
-  </si>
-  <si>
-    <t>發生時間</t>
-  </si>
-  <si>
-    <t>知悉時間</t>
-  </si>
-  <si>
-    <t>性平事件主類別</t>
-  </si>
-  <si>
-    <t>性平事件次類別</t>
-  </si>
-  <si>
-    <t>受理狀態</t>
+    <t>結案時間</t>
+  </si>
+  <si>
+    <t>校安事件編號(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性平號(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>發生時間(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知悉時間(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性平事件主類別(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性平事件次類別(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受理狀態(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否結案(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>受理時間</t>
-  </si>
-  <si>
-    <t>是否結案</t>
-  </si>
-  <si>
-    <t>結案時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -437,45 +446,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="20" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="27.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="20" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
